--- a/Backend/Datasheet.xlsx
+++ b/Backend/Datasheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amgoo\Desktop\CSL_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amgoo\Desktop\data extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098E45B-A134-4F71-B44E-2AF5F2EE85B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74104B28-F165-4501-9031-D34722A573BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-5460" windowWidth="16440" windowHeight="28440" firstSheet="1" activeTab="3" xr2:uid="{FF423BB9-13CB-419A-93A5-5AF58D88ED7A}"/>
+    <workbookView xWindow="-15780" yWindow="1320" windowWidth="15900" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{FF423BB9-13CB-419A-93A5-5AF58D88ED7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="175">
   <si>
     <t>General Patient Data</t>
   </si>
@@ -1295,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B60BBCD-511A-4360-969C-27B07FE32D4D}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1312,7 @@
     <col min="7" max="7" width="19.140625" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" customWidth="1"/>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -1428,7 +1428,7 @@
       <c r="K2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>67</v>
       </c>
       <c r="M2" t="s">
@@ -1446,7 +1446,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -1578,7 +1578,7 @@
       <c r="K5" t="s">
         <v>66</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="5" t="s">
         <v>81</v>
       </c>
       <c r="M5" t="s">
@@ -1596,7 +1596,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -1628,7 +1628,7 @@
       <c r="K6" t="s">
         <v>68</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="5" t="s">
         <v>87</v>
       </c>
       <c r="M6" t="s">
@@ -1646,7 +1646,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -1663,13 +1663,37 @@
       <c r="G7" t="s">
         <v>72</v>
       </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
       <c r="I7" t="s">
         <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>90</v>
@@ -1719,7 +1743,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -1739,10 +1763,31 @@
       <c r="G9" t="s">
         <v>68</v>
       </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -1762,8 +1807,23 @@
       <c r="G10" t="s">
         <v>103</v>
       </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
       <c r="J10" t="s">
         <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
       </c>
       <c r="N10" t="s">
         <v>66</v>
@@ -1777,7 +1837,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>104</v>
@@ -1785,10 +1845,49 @@
       <c r="C11" t="s">
         <v>105</v>
       </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>106</v>
@@ -1799,10 +1898,41 @@
       <c r="D12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>112</v>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1812,13 +1942,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303C2F05-0C3D-4325-B0AF-D12408B8C731}">
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="36" max="36" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -1944,7 +2081,10 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -2063,7 +2203,10 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -2182,7 +2325,10 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -2301,7 +2447,10 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>104</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -2420,7 +2569,10 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>105</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
@@ -2539,7 +2691,61 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" t="s">
+        <v>68</v>
       </c>
       <c r="T7" t="s">
         <v>65</v>
@@ -2547,14 +2753,53 @@
       <c r="U7" t="s">
         <v>65</v>
       </c>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
       <c r="W7" t="s">
         <v>65</v>
       </c>
+      <c r="X7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>68</v>
+      </c>
       <c r="AC7" t="s">
         <v>65</v>
       </c>
+      <c r="AD7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>68</v>
+      </c>
       <c r="AG7" t="s">
         <v>65</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>68</v>
       </c>
       <c r="AL7" t="s">
         <v>128</v>
@@ -2562,10 +2807,16 @@
       <c r="AM7" t="s">
         <v>122</v>
       </c>
+      <c r="AN7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>107</v>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -2669,10 +2920,25 @@
       <c r="AJ8" t="s">
         <v>66</v>
       </c>
+      <c r="AK8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
@@ -2758,16 +3024,43 @@
       <c r="AD9" t="s">
         <v>66</v>
       </c>
+      <c r="AE9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>68</v>
+      </c>
       <c r="AG9" t="s">
         <v>65</v>
       </c>
       <c r="AH9" t="s">
         <v>66</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>109</v>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -2822,21 +3115,310 @@
       </c>
       <c r="T10" t="s">
         <v>66</v>
+      </c>
+      <c r="U10" t="s">
+        <v>68</v>
+      </c>
+      <c r="V10" t="s">
+        <v>68</v>
+      </c>
+      <c r="W10" t="s">
+        <v>68</v>
+      </c>
+      <c r="X10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U11" t="s">
+        <v>68</v>
+      </c>
+      <c r="V11" t="s">
+        <v>68</v>
+      </c>
+      <c r="W11" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>112</v>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" t="s">
+        <v>68</v>
+      </c>
+      <c r="U12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V12" t="s">
+        <v>68</v>
+      </c>
+      <c r="W12" t="s">
+        <v>68</v>
+      </c>
+      <c r="X12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2846,10 +3428,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C0C6F5-F698-406C-9C27-60C2195C9EB5}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,7 +3487,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>139</v>
@@ -2940,7 +3525,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>102</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -2975,7 +3563,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -3010,7 +3601,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>104</v>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
@@ -3045,7 +3639,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>105</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -3080,7 +3677,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7" s="5">
         <v>43161</v>
@@ -3115,7 +3715,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>107</v>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>158</v>
@@ -3150,7 +3753,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>42380</v>
@@ -3164,10 +3770,31 @@
       <c r="F9" t="s">
         <v>164</v>
       </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>109</v>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10" s="5">
         <v>43650</v>
@@ -3175,16 +3802,37 @@
       <c r="D10" t="s">
         <v>165</v>
       </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
       <c r="F10" t="s">
         <v>166</v>
       </c>
       <c r="G10" t="s">
         <v>167</v>
       </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
       </c>
       <c r="C11" s="5">
         <v>42380</v>
@@ -3192,10 +3840,34 @@
       <c r="D11" t="s">
         <v>168</v>
       </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>111</v>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3226,11 +3898,6 @@
       </c>
       <c r="L12" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
